--- a/proyectos.xlsx
+++ b/proyectos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atentoglobal-my.sharepoint.com/personal/z28943283_es_atento_com/Documents/Documentos/Proyecto-Nuevo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atentoglobal-my.sharepoint.com/personal/z28943283_es_atento_com/Documents/Documentos/Proyecto1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{21E345D0-1A42-4DAB-87A7-572B429D4A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDD30ED-BDB0-4AFB-A664-E3A7659CF491}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E345D0-1A42-4DAB-87A7-572B429D4A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="1575" windowWidth="20460" windowHeight="10890" xr2:uid="{F3929C5C-5F02-4ABB-BB12-326D8E50090B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3929C5C-5F02-4ABB-BB12-326D8E50090B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,30 +39,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+  <si>
+    <t>AL258112</t>
+  </si>
+  <si>
+    <t>AL258113</t>
+  </si>
+  <si>
+    <t>AL232310</t>
+  </si>
+  <si>
+    <t>AH001256</t>
+  </si>
+  <si>
+    <t>AL221556</t>
+  </si>
+  <si>
+    <t>UL046321</t>
+  </si>
   <si>
     <t>Type</t>
   </si>
   <si>
+    <t>installing a new accounting system</t>
+  </si>
+  <si>
+    <t>a building or road</t>
+  </si>
+  <si>
     <t>a feasibility study or investigating a chemical</t>
   </si>
   <si>
+    <t>a new drug or aerospace/defense product</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Computer Software Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a new computer program</t>
+  </si>
+  <si>
+    <t>Design of Plans</t>
+  </si>
+  <si>
+    <t>architectural or engineering plans</t>
+  </si>
+  <si>
+    <t>Equipment or System Installation</t>
+  </si>
+  <si>
+    <t>a telephone system or IT system</t>
+  </si>
+  <si>
+    <t>Event or Relocation</t>
+  </si>
+  <si>
+    <t>Olympiads or a move into a new building</t>
+  </si>
+  <si>
+    <t>Maintenance of Process Industries</t>
+  </si>
+  <si>
+    <t>petro-chemical plant or electric generating station</t>
+  </si>
+  <si>
+    <t>New Product Development</t>
+  </si>
+  <si>
     <t>Research</t>
   </si>
   <si>
     <t>AR056691</t>
   </si>
   <si>
+    <t>UL258001</t>
+  </si>
+  <si>
+    <t>AR062233</t>
+  </si>
+  <si>
+    <t>AR044321</t>
+  </si>
+  <si>
+    <t>UL223314</t>
+  </si>
+  <si>
+    <t>UR332441</t>
+  </si>
+  <si>
+    <t>UL258122</t>
+  </si>
+  <si>
+    <t>AR062331</t>
+  </si>
+  <si>
+    <t>AL112347</t>
+  </si>
+  <si>
+    <t>AL213557</t>
+  </si>
+  <si>
+    <t>UR216878</t>
+  </si>
+  <si>
+    <t>AL071236</t>
+  </si>
+  <si>
+    <t>UR237511</t>
+  </si>
+  <si>
+    <t>UR054912</t>
+  </si>
+  <si>
+    <t>UL054239</t>
+  </si>
+  <si>
+    <t>AL001936</t>
+  </si>
+  <si>
+    <t>UL258129</t>
+  </si>
+  <si>
     <t>Project Name</t>
   </si>
   <si>
     <t>RES</t>
   </si>
   <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>CSD</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>NPD</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>EOR</t>
+  </si>
+  <si>
+    <t>AL053494</t>
+  </si>
+  <si>
+    <t>UR047451</t>
   </si>
 </sst>
 </file>
@@ -121,10 +265,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8167FEE-14CF-4C1D-9C2E-AED5800257E1}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,30 +580,366 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
